--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Nppa-Npr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Nppa-Npr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>Nppa</t>
+  </si>
+  <si>
+    <t>Npr1</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Nppa</t>
-  </si>
-  <si>
-    <t>Npr1</t>
   </si>
   <si>
     <t>MuSCs</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,13 +525,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -540,16 +540,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.2011846666666667</v>
+        <v>0.2077686666666667</v>
       </c>
       <c r="H2">
-        <v>0.603554</v>
+        <v>0.623306</v>
       </c>
       <c r="I2">
-        <v>0.408066485560404</v>
+        <v>0.3307450952508051</v>
       </c>
       <c r="J2">
-        <v>0.408066485560404</v>
+        <v>0.3307450952508051</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>45.68521766666667</v>
+        <v>53.86214433333333</v>
       </c>
       <c r="N2">
-        <v>137.055653</v>
+        <v>161.586433</v>
       </c>
       <c r="O2">
-        <v>0.9629632895453355</v>
+        <v>0.9724469410879554</v>
       </c>
       <c r="P2">
-        <v>0.9629632895453354</v>
+        <v>0.9724469410879553</v>
       </c>
       <c r="Q2">
-        <v>9.191165287862445</v>
+        <v>11.19086591194422</v>
       </c>
       <c r="R2">
-        <v>82.720487590762</v>
+        <v>100.717793207498</v>
       </c>
       <c r="S2">
-        <v>0.3929530452884508</v>
+        <v>0.3216320561564898</v>
       </c>
       <c r="T2">
-        <v>0.3929530452884508</v>
+        <v>0.3216320561564898</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,13 +587,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -602,16 +602,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.2011846666666667</v>
+        <v>0.2077686666666667</v>
       </c>
       <c r="H3">
-        <v>0.603554</v>
+        <v>0.623306</v>
       </c>
       <c r="I3">
-        <v>0.408066485560404</v>
+        <v>0.3307450952508051</v>
       </c>
       <c r="J3">
-        <v>0.408066485560404</v>
+        <v>0.3307450952508051</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>4.016568</v>
       </c>
       <c r="O3">
-        <v>0.02822070778767899</v>
+        <v>0.02417219807848452</v>
       </c>
       <c r="P3">
-        <v>0.02822070778767899</v>
+        <v>0.02417219807848452</v>
       </c>
       <c r="Q3">
-        <v>0.2693572980746667</v>
+        <v>0.2781723259786667</v>
       </c>
       <c r="R3">
-        <v>2.424215682672</v>
+        <v>2.503550933808</v>
       </c>
       <c r="S3">
-        <v>0.01151592504694529</v>
+        <v>0.007994835955889689</v>
       </c>
       <c r="T3">
-        <v>0.01151592504694529</v>
+        <v>0.007994835955889689</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -664,46 +664,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.2011846666666667</v>
+        <v>0.2077686666666667</v>
       </c>
       <c r="H4">
-        <v>0.603554</v>
+        <v>0.623306</v>
       </c>
       <c r="I4">
-        <v>0.408066485560404</v>
+        <v>0.3307450952508051</v>
       </c>
       <c r="J4">
-        <v>0.408066485560404</v>
+        <v>0.3307450952508051</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.244693</v>
+        <v>0.08621966666666665</v>
       </c>
       <c r="N4">
-        <v>0.734079</v>
+        <v>0.258659</v>
       </c>
       <c r="O4">
-        <v>0.005157694069183344</v>
+        <v>0.001556641536451698</v>
       </c>
       <c r="P4">
-        <v>0.005157694069183343</v>
+        <v>0.001556641536451698</v>
       </c>
       <c r="Q4">
-        <v>0.04922847964066667</v>
+        <v>0.01791374518377778</v>
       </c>
       <c r="R4">
-        <v>0.443056316766</v>
+        <v>0.161223706654</v>
       </c>
       <c r="S4">
-        <v>0.002104682092407386</v>
+        <v>0.0005148515532450766</v>
       </c>
       <c r="T4">
-        <v>0.002104682092407386</v>
+        <v>0.0005148515532450766</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -726,16 +726,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.2011846666666667</v>
+        <v>0.2077686666666667</v>
       </c>
       <c r="H5">
-        <v>0.603554</v>
+        <v>0.623306</v>
       </c>
       <c r="I5">
-        <v>0.408066485560404</v>
+        <v>0.3307450952508051</v>
       </c>
       <c r="J5">
-        <v>0.408066485560404</v>
+        <v>0.3307450952508051</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,90 +744,90 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.05930833333333333</v>
+        <v>0.1010403333333333</v>
       </c>
       <c r="N5">
-        <v>0.177925</v>
+        <v>0.303121</v>
       </c>
       <c r="O5">
-        <v>0.001250114384500097</v>
+        <v>0.001824219297108453</v>
       </c>
       <c r="P5">
-        <v>0.001250114384500096</v>
+        <v>0.001824219297108453</v>
       </c>
       <c r="Q5">
-        <v>0.01193192727222222</v>
+        <v>0.02099301533622222</v>
       </c>
       <c r="R5">
-        <v>0.10738734545</v>
+        <v>0.188937138026</v>
       </c>
       <c r="S5">
-        <v>0.000510129783431462</v>
+        <v>0.000603351585180492</v>
       </c>
       <c r="T5">
-        <v>0.000510129783431462</v>
+        <v>0.0006033515851804919</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.420415</v>
+      </c>
+      <c r="H6">
+        <v>1.261245</v>
+      </c>
+      <c r="I6">
+        <v>0.6692549047491948</v>
+      </c>
+      <c r="J6">
+        <v>0.6692549047491948</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
         <v>1</v>
       </c>
-      <c r="F6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G6">
-        <v>0.2011846666666667</v>
-      </c>
-      <c r="H6">
-        <v>0.603554</v>
-      </c>
-      <c r="I6">
-        <v>0.408066485560404</v>
-      </c>
-      <c r="J6">
-        <v>0.408066485560404</v>
-      </c>
-      <c r="K6">
-        <v>2</v>
-      </c>
-      <c r="L6">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M6">
-        <v>0.1142503333333333</v>
+        <v>53.86214433333333</v>
       </c>
       <c r="N6">
-        <v>0.342751</v>
+        <v>161.586433</v>
       </c>
       <c r="O6">
-        <v>0.002408194213302193</v>
+        <v>0.9724469410879554</v>
       </c>
       <c r="P6">
-        <v>0.002408194213302193</v>
+        <v>0.9724469410879553</v>
       </c>
       <c r="Q6">
-        <v>0.02298541522822222</v>
+        <v>22.64445340989833</v>
       </c>
       <c r="R6">
-        <v>0.206868737054</v>
+        <v>203.800080689085</v>
       </c>
       <c r="S6">
-        <v>0.0009827033491691276</v>
+        <v>0.6508148849314654</v>
       </c>
       <c r="T6">
-        <v>0.0009827033491691278</v>
+        <v>0.6508148849314653</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,31 +835,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.2077686666666667</v>
+        <v>0.420415</v>
       </c>
       <c r="H7">
-        <v>0.623306</v>
+        <v>1.261245</v>
       </c>
       <c r="I7">
-        <v>0.4214209314306809</v>
+        <v>0.6692549047491948</v>
       </c>
       <c r="J7">
-        <v>0.4214209314306809</v>
+        <v>0.6692549047491948</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>45.68521766666667</v>
+        <v>1.338856</v>
       </c>
       <c r="N7">
-        <v>137.055653</v>
+        <v>4.016568</v>
       </c>
       <c r="O7">
-        <v>0.9629632895453355</v>
+        <v>0.02417219807848452</v>
       </c>
       <c r="P7">
-        <v>0.9629632895453354</v>
+        <v>0.02417219807848452</v>
       </c>
       <c r="Q7">
-        <v>9.491956760979779</v>
+        <v>0.56287514524</v>
       </c>
       <c r="R7">
-        <v>85.42761084881801</v>
+        <v>5.06587630716</v>
       </c>
       <c r="S7">
-        <v>0.4058128864137477</v>
+        <v>0.01617736212259482</v>
       </c>
       <c r="T7">
-        <v>0.4058128864137477</v>
+        <v>0.01617736212259482</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,31 +897,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.2077686666666667</v>
+        <v>0.420415</v>
       </c>
       <c r="H8">
-        <v>0.623306</v>
+        <v>1.261245</v>
       </c>
       <c r="I8">
-        <v>0.4214209314306809</v>
+        <v>0.6692549047491948</v>
       </c>
       <c r="J8">
-        <v>0.4214209314306809</v>
+        <v>0.6692549047491948</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.338856</v>
+        <v>0.08621966666666665</v>
       </c>
       <c r="N8">
-        <v>4.016568</v>
+        <v>0.258659</v>
       </c>
       <c r="O8">
-        <v>0.02822070778767899</v>
+        <v>0.001556641536451698</v>
       </c>
       <c r="P8">
-        <v>0.02822070778767899</v>
+        <v>0.001556641536451698</v>
       </c>
       <c r="Q8">
-        <v>0.2781723259786667</v>
+        <v>0.03624804116166666</v>
       </c>
       <c r="R8">
-        <v>2.503550933808</v>
+        <v>0.326232370455</v>
       </c>
       <c r="S8">
-        <v>0.01189279696151675</v>
+        <v>0.001041789983206622</v>
       </c>
       <c r="T8">
-        <v>0.01189279696151675</v>
+        <v>0.001041789983206622</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,31 +959,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.2077686666666667</v>
+        <v>0.420415</v>
       </c>
       <c r="H9">
-        <v>0.623306</v>
+        <v>1.261245</v>
       </c>
       <c r="I9">
-        <v>0.4214209314306809</v>
+        <v>0.6692549047491948</v>
       </c>
       <c r="J9">
-        <v>0.4214209314306809</v>
+        <v>0.6692549047491948</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,462 +992,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.244693</v>
+        <v>0.1010403333333333</v>
       </c>
       <c r="N9">
-        <v>0.734079</v>
+        <v>0.303121</v>
       </c>
       <c r="O9">
-        <v>0.005157694069183344</v>
+        <v>0.001824219297108453</v>
       </c>
       <c r="P9">
-        <v>0.005157694069183343</v>
+        <v>0.001824219297108453</v>
       </c>
       <c r="Q9">
-        <v>0.05083953835266668</v>
+        <v>0.04247887173833333</v>
       </c>
       <c r="R9">
-        <v>0.4575558451740001</v>
+        <v>0.382309845645</v>
       </c>
       <c r="S9">
-        <v>0.002173560238669743</v>
+        <v>0.001220867711927961</v>
       </c>
       <c r="T9">
-        <v>0.002173560238669743</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G10">
-        <v>0.2077686666666667</v>
-      </c>
-      <c r="H10">
-        <v>0.623306</v>
-      </c>
-      <c r="I10">
-        <v>0.4214209314306809</v>
-      </c>
-      <c r="J10">
-        <v>0.4214209314306809</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M10">
-        <v>0.05930833333333333</v>
-      </c>
-      <c r="N10">
-        <v>0.177925</v>
-      </c>
-      <c r="O10">
-        <v>0.001250114384500097</v>
-      </c>
-      <c r="P10">
-        <v>0.001250114384500096</v>
-      </c>
-      <c r="Q10">
-        <v>0.01232241333888889</v>
-      </c>
-      <c r="R10">
-        <v>0.11090172005</v>
-      </c>
-      <c r="S10">
-        <v>0.0005268243683109231</v>
-      </c>
-      <c r="T10">
-        <v>0.0005268243683109229</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G11">
-        <v>0.2077686666666667</v>
-      </c>
-      <c r="H11">
-        <v>0.623306</v>
-      </c>
-      <c r="I11">
-        <v>0.4214209314306809</v>
-      </c>
-      <c r="J11">
-        <v>0.4214209314306809</v>
-      </c>
-      <c r="K11">
-        <v>2</v>
-      </c>
-      <c r="L11">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M11">
-        <v>0.1142503333333333</v>
-      </c>
-      <c r="N11">
-        <v>0.342751</v>
-      </c>
-      <c r="O11">
-        <v>0.002408194213302193</v>
-      </c>
-      <c r="P11">
-        <v>0.002408194213302193</v>
-      </c>
-      <c r="Q11">
-        <v>0.02373763942288889</v>
-      </c>
-      <c r="R11">
-        <v>0.213638754806</v>
-      </c>
-      <c r="S11">
-        <v>0.001014863448435786</v>
-      </c>
-      <c r="T11">
-        <v>0.001014863448435786</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G12">
-        <v>0.08406599999999999</v>
-      </c>
-      <c r="H12">
-        <v>0.252198</v>
-      </c>
-      <c r="I12">
-        <v>0.1705125830089151</v>
-      </c>
-      <c r="J12">
-        <v>0.1705125830089151</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>45.68521766666667</v>
-      </c>
-      <c r="N12">
-        <v>137.055653</v>
-      </c>
-      <c r="O12">
-        <v>0.9629632895453355</v>
-      </c>
-      <c r="P12">
-        <v>0.9629632895453354</v>
-      </c>
-      <c r="Q12">
-        <v>3.840573508366</v>
-      </c>
-      <c r="R12">
-        <v>34.565161575294</v>
-      </c>
-      <c r="S12">
-        <v>0.164197357843137</v>
-      </c>
-      <c r="T12">
-        <v>0.164197357843137</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G13">
-        <v>0.08406599999999999</v>
-      </c>
-      <c r="H13">
-        <v>0.252198</v>
-      </c>
-      <c r="I13">
-        <v>0.1705125830089151</v>
-      </c>
-      <c r="J13">
-        <v>0.1705125830089151</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>1.338856</v>
-      </c>
-      <c r="N13">
-        <v>4.016568</v>
-      </c>
-      <c r="O13">
-        <v>0.02822070778767899</v>
-      </c>
-      <c r="P13">
-        <v>0.02822070778767899</v>
-      </c>
-      <c r="Q13">
-        <v>0.112552268496</v>
-      </c>
-      <c r="R13">
-        <v>1.012970416464</v>
-      </c>
-      <c r="S13">
-        <v>0.00481198577921695</v>
-      </c>
-      <c r="T13">
-        <v>0.00481198577921695</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G14">
-        <v>0.08406599999999999</v>
-      </c>
-      <c r="H14">
-        <v>0.252198</v>
-      </c>
-      <c r="I14">
-        <v>0.1705125830089151</v>
-      </c>
-      <c r="J14">
-        <v>0.1705125830089151</v>
-      </c>
-      <c r="K14">
-        <v>2</v>
-      </c>
-      <c r="L14">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M14">
-        <v>0.244693</v>
-      </c>
-      <c r="N14">
-        <v>0.734079</v>
-      </c>
-      <c r="O14">
-        <v>0.005157694069183344</v>
-      </c>
-      <c r="P14">
-        <v>0.005157694069183343</v>
-      </c>
-      <c r="Q14">
-        <v>0.020570361738</v>
-      </c>
-      <c r="R14">
-        <v>0.185133255642</v>
-      </c>
-      <c r="S14">
-        <v>0.000879451738106214</v>
-      </c>
-      <c r="T14">
-        <v>0.0008794517381062139</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G15">
-        <v>0.08406599999999999</v>
-      </c>
-      <c r="H15">
-        <v>0.252198</v>
-      </c>
-      <c r="I15">
-        <v>0.1705125830089151</v>
-      </c>
-      <c r="J15">
-        <v>0.1705125830089151</v>
-      </c>
-      <c r="K15">
-        <v>2</v>
-      </c>
-      <c r="L15">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M15">
-        <v>0.05930833333333333</v>
-      </c>
-      <c r="N15">
-        <v>0.177925</v>
-      </c>
-      <c r="O15">
-        <v>0.001250114384500097</v>
-      </c>
-      <c r="P15">
-        <v>0.001250114384500096</v>
-      </c>
-      <c r="Q15">
-        <v>0.004985814349999999</v>
-      </c>
-      <c r="R15">
-        <v>0.04487232914999999</v>
-      </c>
-      <c r="S15">
-        <v>0.0002131602327577115</v>
-      </c>
-      <c r="T15">
-        <v>0.0002131602327577115</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G16">
-        <v>0.08406599999999999</v>
-      </c>
-      <c r="H16">
-        <v>0.252198</v>
-      </c>
-      <c r="I16">
-        <v>0.1705125830089151</v>
-      </c>
-      <c r="J16">
-        <v>0.1705125830089151</v>
-      </c>
-      <c r="K16">
-        <v>2</v>
-      </c>
-      <c r="L16">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M16">
-        <v>0.1142503333333333</v>
-      </c>
-      <c r="N16">
-        <v>0.342751</v>
-      </c>
-      <c r="O16">
-        <v>0.002408194213302193</v>
-      </c>
-      <c r="P16">
-        <v>0.002408194213302193</v>
-      </c>
-      <c r="Q16">
-        <v>0.009604568522</v>
-      </c>
-      <c r="R16">
-        <v>0.086441116698</v>
-      </c>
-      <c r="S16">
-        <v>0.0004106274156972791</v>
-      </c>
-      <c r="T16">
-        <v>0.0004106274156972791</v>
+        <v>0.001220867711927961</v>
       </c>
     </row>
   </sheetData>
